--- a/工作记录2 .xlsx
+++ b/工作记录2 .xlsx
@@ -5,7 +5,7 @@
   <workbookPr checkCompatibility="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhaobaohua\OneDrive\文档\工作记录\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repo\work_plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12469" uniqueCount="4383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12479" uniqueCount="4385">
   <si>
     <t>日期</t>
     <phoneticPr fontId="35" type="noConversion"/>
@@ -24160,6 +24160,14 @@
   <si>
     <t>休假总计</t>
     <phoneticPr fontId="58" type="noConversion"/>
+  </si>
+  <si>
+    <t>休假</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>休假</t>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -27207,10 +27215,10 @@
   <dimension ref="A1:T1932"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B1547" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B1553" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C1559" sqref="C1559"/>
+      <selection pane="bottomRight" activeCell="E1573" sqref="E1573"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -71395,7 +71403,9 @@
       <c r="B1561" s="33">
         <v>42730</v>
       </c>
-      <c r="C1561" s="291"/>
+      <c r="C1561" s="300" t="s">
+        <v>4383</v>
+      </c>
       <c r="D1561" s="3"/>
       <c r="E1561" s="30"/>
       <c r="F1561" s="3"/>
@@ -71412,7 +71422,9 @@
       <c r="B1562" s="33">
         <v>42731</v>
       </c>
-      <c r="C1562" s="291"/>
+      <c r="C1562" s="300" t="s">
+        <v>4383</v>
+      </c>
       <c r="D1562" s="3"/>
       <c r="E1562" s="30"/>
       <c r="F1562" s="3"/>
@@ -71429,7 +71441,9 @@
       <c r="B1563" s="33">
         <v>42732</v>
       </c>
-      <c r="C1563" s="291"/>
+      <c r="C1563" s="300" t="s">
+        <v>4383</v>
+      </c>
       <c r="D1563" s="3"/>
       <c r="E1563" s="30"/>
       <c r="F1563" s="3"/>
@@ -71444,7 +71458,9 @@
       <c r="B1564" s="33">
         <v>42733</v>
       </c>
-      <c r="C1564" s="291"/>
+      <c r="C1564" s="300" t="s">
+        <v>4383</v>
+      </c>
       <c r="D1564" s="3"/>
       <c r="E1564" s="30"/>
       <c r="F1564" s="3"/>
@@ -71459,7 +71475,9 @@
       <c r="B1565" s="33">
         <v>42734</v>
       </c>
-      <c r="C1565" s="291"/>
+      <c r="C1565" s="300" t="s">
+        <v>4383</v>
+      </c>
       <c r="D1565" s="3"/>
       <c r="E1565" s="30"/>
       <c r="F1565" s="3"/>
@@ -71474,7 +71492,9 @@
       <c r="B1566" s="33">
         <v>42735</v>
       </c>
-      <c r="C1566" s="291"/>
+      <c r="C1566" s="300" t="s">
+        <v>4383</v>
+      </c>
       <c r="D1566" s="3"/>
       <c r="E1566" s="30"/>
       <c r="F1566" s="3"/>
@@ -71520,7 +71540,9 @@
       <c r="B1568" s="33">
         <v>42736</v>
       </c>
-      <c r="C1568" s="291"/>
+      <c r="C1568" s="300" t="s">
+        <v>4384</v>
+      </c>
       <c r="D1568" s="3"/>
       <c r="E1568" s="288"/>
       <c r="F1568" s="288"/>
@@ -71534,7 +71556,9 @@
       <c r="B1569" s="33">
         <v>42737</v>
       </c>
-      <c r="C1569" s="291"/>
+      <c r="C1569" s="300" t="s">
+        <v>4384</v>
+      </c>
       <c r="D1569" s="288"/>
       <c r="E1569" s="288"/>
       <c r="F1569" s="288"/>
@@ -71551,7 +71575,9 @@
       <c r="B1570" s="33">
         <v>42738</v>
       </c>
-      <c r="C1570" s="291"/>
+      <c r="C1570" s="300" t="s">
+        <v>4384</v>
+      </c>
       <c r="D1570" s="288"/>
       <c r="E1570" s="288"/>
       <c r="F1570" s="288"/>
@@ -71568,7 +71594,9 @@
       <c r="B1571" s="33">
         <v>42739</v>
       </c>
-      <c r="C1571" s="291"/>
+      <c r="C1571" s="300" t="s">
+        <v>4384</v>
+      </c>
       <c r="D1571" s="288"/>
       <c r="E1571" s="288"/>
       <c r="F1571" s="288"/>
